--- a/PlantHeight.xlsx
+++ b/PlantHeight.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Day 1 Training Session\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Day 1 Training Session\Day 2 Training Philado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76507CE0-3F40-43AE-BC54-9AFFA7C42EE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56397E11-85A3-4E87-AD31-456BCB7CED08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Terms" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="263">
   <si>
     <t>Group</t>
   </si>
@@ -791,16 +792,42 @@
   </si>
   <si>
     <t>Height(in)</t>
+  </si>
+  <si>
+    <t>This dataset on 'SleepData.xlsx' is hypothetical and was generated</t>
+  </si>
+  <si>
+    <t>by Paolo G. Hilado (Github: Dcroix) for training purposes on Basic Statistics . Considering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that most of the values generated by this dataset use randomization, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in such a rare case that it resembles any existing dataset, it is purely </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coincidental. It is distributed under </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creative Commons Attribution-NoDerivatives 4.0 International Public License.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -823,13 +850,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1212,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3979,4 +4009,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CA290A-C9C6-4E5D-930E-8F34AFE51415}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{C9D341A4-D7F6-4E2C-AE7C-326F08925EBE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>